--- a/data/negative_signals/Indirectly connected (A-X-B) - Ipratropium bromide - Bullous eruptions.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Ipratropium bromide - Bullous eruptions.xlsx
@@ -173,6 +173,78 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>3763631</t>
+  </si>
+  <si>
+    <t>bullous eruption</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>52259066</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>59241295</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>53025098</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>51266807</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>62357294</t>
+  </si>
+  <si>
+    <t>52430745</t>
+  </si>
+  <si>
+    <t>69987932</t>
+  </si>
+  <si>
+    <t>650553</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>57236062</t>
+  </si>
+  <si>
+    <t>52430720</t>
+  </si>
+  <si>
+    <t>78122755</t>
+  </si>
+  <si>
     <t>5648228</t>
   </si>
   <si>
@@ -182,100 +254,28 @@
     <t>Procedures</t>
   </si>
   <si>
-    <t>3763631</t>
-  </si>
-  <si>
-    <t>bullous eruption</t>
-  </si>
-  <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>142254047</t>
+    <t>75869845</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>59351364</t>
+  </si>
+  <si>
+    <t>75865307</t>
   </si>
   <si>
     <t>is higher than</t>
   </si>
   <si>
-    <t>118364061</t>
+    <t>52147937</t>
   </si>
   <si>
     <t>uses</t>
   </si>
   <si>
-    <t>142258370</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>125766077</t>
-  </si>
-  <si>
-    <t>132508592</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>119317321</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>125642826</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>118501560</t>
-  </si>
-  <si>
-    <t>117459011</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>127606507</t>
-  </si>
-  <si>
-    <t>118670587</t>
-  </si>
-  <si>
-    <t>136332181</t>
-  </si>
-  <si>
-    <t>650553</t>
-  </si>
-  <si>
-    <t>infant</t>
-  </si>
-  <si>
-    <t>118670467</t>
-  </si>
-  <si>
-    <t>119758554</t>
-  </si>
-  <si>
-    <t>144464660</t>
+    <t>66163822</t>
   </si>
   <si>
     <t>590091</t>
@@ -284,10 +284,10 @@
     <t>male population group</t>
   </si>
   <si>
-    <t>161003476</t>
-  </si>
-  <si>
-    <t>165773837</t>
+    <t>94729283</t>
+  </si>
+  <si>
+    <t>99578394</t>
   </si>
   <si>
     <t>4033983</t>
@@ -296,43 +296,43 @@
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>118795066</t>
+    <t>79230437</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>90761874</t>
+  </si>
+  <si>
+    <t>58664893</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>52545642</t>
   </si>
   <si>
     <t>is a</t>
   </si>
   <si>
-    <t>141726049</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>168741430</t>
+    <t>75392971</t>
+  </si>
+  <si>
+    <t>102529919</t>
   </si>
   <si>
     <t>is the same as</t>
   </si>
   <si>
-    <t>145684786</t>
-  </si>
-  <si>
-    <t>125642718</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>125076901</t>
-  </si>
-  <si>
-    <t>125643512</t>
-  </si>
-  <si>
-    <t>156954018</t>
-  </si>
-  <si>
-    <t>142812784</t>
+    <t>59242068</t>
+  </si>
+  <si>
+    <t>59241147</t>
+  </si>
+  <si>
+    <t>76350720</t>
   </si>
   <si>
     <t>causes</t>
@@ -540,7 +540,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57.0</v>
+        <v>42.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -591,18 +591,12 @@
         <v>65</v>
       </c>
       <c r="R2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" t="s">
         <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42.0</v>
+        <v>34.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -614,13 +608,13 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -632,33 +626,27 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
         <v>71</v>
       </c>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" t="s">
-        <v>75</v>
-      </c>
       <c r="P3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -670,13 +658,13 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -688,27 +676,27 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -720,13 +708,13 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -738,22 +726,34 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" t="s">
         <v>85</v>
       </c>
-      <c r="L5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="R5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="S5" t="s">
         <v>87</v>
       </c>
-      <c r="P5" t="s">
-        <v>77</v>
+      <c r="T5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -776,7 +776,7 @@
         <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -791,13 +791,13 @@
         <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
         <v>91</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -841,43 +841,43 @@
         <v>96</v>
       </c>
       <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
         <v>97</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>98</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>100</v>
-      </c>
-      <c r="R7" t="s">
-        <v>97</v>
       </c>
       <c r="S7" t="s">
         <v>101</v>
       </c>
       <c r="T7" t="s">
+        <v>95</v>
+      </c>
+      <c r="U7" t="s">
         <v>102</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>103</v>
-      </c>
-      <c r="V7" t="s">
-        <v>102</v>
       </c>
       <c r="W7" t="s">
         <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s">
         <v>105</v>
       </c>
       <c r="Z7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="AA7" t="s">
         <v>106</v>
